--- a/references/articles.xlsx
+++ b/references/articles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C3193F9-C838-419A-B903-A9AEAD9BD4B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC5FDC67-80D5-4E42-9113-6FCE74D159EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>29/07/2018</t>
+  </si>
+  <si>
+    <t>https://kipalog.com/posts/Mot-so-cach-phuc-hoi-code-tren-Git</t>
+  </si>
+  <si>
+    <t>Một số cách phục hồi code trên Git</t>
+  </si>
+  <si>
+    <t>"Undo" một commit trong git tree</t>
+  </si>
+  <si>
+    <t>https://kipalog.com/posts/Undo--mot-commit-trong-git-tree</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F59"/>
+  <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" activeCellId="1" sqref="B31 C31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" activeCellId="1" sqref="B59 C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1563,22 @@
         <v>122</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/references/articles.xlsx
+++ b/references/articles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{200F4954-498A-40D7-853A-1F78C191AF31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E49348A-A9FC-4157-AE13-FD9C24839133}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
   <si>
     <t>#</t>
   </si>
@@ -407,6 +407,30 @@
   </si>
   <si>
     <t>https://forums.voz.vn/showthread.php?t=4177150</t>
+  </si>
+  <si>
+    <t>https://vietpro.net.vn/lap-trinh-laravel</t>
+  </si>
+  <si>
+    <t>Tự Học Laravel 5, Học Lập Trình Laravel Framework Cơ Bản Miễn Phí</t>
+  </si>
+  <si>
+    <t>https://allaravel.com/laravel-tutorials/lam-viec-voi-co-so-du-lieu-trong-laravel/</t>
+  </si>
+  <si>
+    <t>Làm việc với cơ sở dữ liệu trong Laravel</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/laravel-co-ban-wpVYRPjDG4ng</t>
+  </si>
+  <si>
+    <t>Laravel cơ bản</t>
+  </si>
+  <si>
+    <t>Bootstrap 4 cơ bản</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/bootstrap4/default.asp</t>
   </si>
 </sst>
 </file>
@@ -733,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F70"/>
+  <dimension ref="A2:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" activeCellId="1" sqref="B21 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,87 +979,71 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>122</v>
@@ -1043,13 +1051,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>122</v>
@@ -1057,13 +1065,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>122</v>
@@ -1071,13 +1079,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>122</v>
@@ -1085,13 +1093,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>122</v>
@@ -1099,13 +1107,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>122</v>
@@ -1113,13 +1121,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>122</v>
@@ -1127,13 +1135,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>122</v>
@@ -1141,13 +1149,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>122</v>
@@ -1155,13 +1163,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>122</v>
@@ -1169,13 +1177,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>122</v>
@@ -1183,13 +1191,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>122</v>
@@ -1197,13 +1205,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>122</v>
@@ -1211,13 +1219,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>122</v>
@@ -1225,13 +1233,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>122</v>
@@ -1239,13 +1247,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>122</v>
@@ -1253,13 +1261,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>122</v>
@@ -1267,13 +1275,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>122</v>
@@ -1281,13 +1289,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>122</v>
@@ -1295,13 +1303,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>122</v>
@@ -1309,13 +1317,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>122</v>
@@ -1323,13 +1331,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>122</v>
@@ -1337,13 +1345,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>122</v>
@@ -1351,13 +1359,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>122</v>
@@ -1365,13 +1373,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>122</v>
@@ -1379,13 +1387,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>122</v>
@@ -1393,13 +1401,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>122</v>
@@ -1407,13 +1415,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>122</v>
@@ -1421,13 +1429,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>122</v>
@@ -1435,13 +1443,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>122</v>
@@ -1449,13 +1457,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>122</v>
@@ -1463,13 +1471,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>122</v>
@@ -1477,13 +1485,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>122</v>
@@ -1491,13 +1499,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>122</v>
@@ -1505,13 +1513,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>122</v>
@@ -1519,13 +1527,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>122</v>
@@ -1533,13 +1541,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>122</v>
@@ -1547,13 +1555,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>122</v>
@@ -1561,13 +1569,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>122</v>
@@ -1575,68 +1583,123 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+      <c r="F69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>125</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>127</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
